--- a/simulation/robotstudio_sim/scripts/fitting_output/threshold0.25/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/threshold0.25/comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>max_error1</t>
   </si>
@@ -40,6 +40,12 @@
     <t>max_error2</t>
   </si>
   <si>
+    <t>max_error1_idx</t>
+  </si>
+  <si>
+    <t>max_error2_idx</t>
+  </si>
+  <si>
     <t>total_time</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>min_speed</t>
+  </si>
+  <si>
+    <t>jacobian_min_sing</t>
+  </si>
+  <si>
+    <t>jacobian_min_sing_idx</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:D28"/>
+  <dimension ref="A4:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.291500365380792</v>
+        <v>0.8162920229785137</v>
       </c>
       <c r="C6">
         <v>2.790553791664303</v>
@@ -445,10 +457,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.291500365380792</v>
+        <v>0.7661781277033023</v>
       </c>
       <c r="C7">
-        <v>2.176184836660749</v>
+        <v>2.37528080986188</v>
       </c>
       <c r="D7">
         <v>3.808232631059418</v>
@@ -459,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.291500365380792</v>
+        <v>0.7466905725221979</v>
       </c>
       <c r="C8">
         <v>2.176184836660749</v>
@@ -489,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.320683865971579</v>
+        <v>0.9035369429492629</v>
       </c>
       <c r="C11">
         <v>2.886258752908477</v>
@@ -503,10 +515,10 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.320683865971579</v>
+        <v>0.9268043920934043</v>
       </c>
       <c r="C12">
-        <v>2.194446790973227</v>
+        <v>2.48109350280514</v>
       </c>
       <c r="D12">
         <v>3.881454275864477</v>
@@ -517,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>1.320683865971579</v>
+        <v>0.7119511636089839</v>
       </c>
       <c r="C13">
         <v>2.194446790973227</v>
@@ -547,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>36.008</v>
+        <v>921</v>
       </c>
       <c r="C16">
-        <v>6.028</v>
+        <v>149</v>
       </c>
       <c r="D16">
-        <v>5.087999999999999</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -561,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>34.248</v>
+        <v>5898</v>
       </c>
       <c r="C17">
-        <v>3.3</v>
+        <v>936</v>
       </c>
       <c r="D17">
-        <v>1.944</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -575,13 +587,13 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>34.056</v>
+        <v>5214</v>
       </c>
       <c r="C18">
-        <v>2.988</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>1.224</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -605,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>129.5179146459695</v>
+        <v>8454</v>
       </c>
       <c r="C21">
-        <v>504.6854991336174</v>
+        <v>149</v>
       </c>
       <c r="D21">
-        <v>1065.659451657972</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -619,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>129.5179146461996</v>
+        <v>8200</v>
       </c>
       <c r="C22">
-        <v>504.7680356390031</v>
+        <v>937</v>
       </c>
       <c r="D22">
-        <v>1082.604603717663</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -633,13 +645,13 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>129.5179146459695</v>
+        <v>5259</v>
       </c>
       <c r="C23">
-        <v>509.5334958434959</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>1308.512554230926</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -663,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>4.575462762377208</v>
+        <v>36.13999999999999</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>6.155</v>
       </c>
       <c r="D26">
-        <v>4.605054499265073</v>
+        <v>5.223999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -677,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>4.575462762385336</v>
+        <v>34.968</v>
       </c>
       <c r="C27">
-        <v>9.165954141355106</v>
+        <v>4.103000000000001</v>
       </c>
       <c r="D27">
-        <v>4.575462762382288</v>
+        <v>3.084000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -691,13 +703,245 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>4.575462762377208</v>
+        <v>34.964</v>
       </c>
       <c r="C28">
-        <v>9.165954141355106</v>
+        <v>3.808000000000001</v>
       </c>
       <c r="D28">
-        <v>4.575462762383304</v>
+        <v>2.264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>51.84984047062258</v>
+      </c>
+      <c r="C31">
+        <v>1304.283705013215</v>
+      </c>
+      <c r="D31">
+        <v>852.5275613264535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>53.52083243093699</v>
+      </c>
+      <c r="C32">
+        <v>673.0240475185711</v>
+      </c>
+      <c r="D32">
+        <v>1082.604603717663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>51.53165847416602</v>
+      </c>
+      <c r="C33">
+        <v>509.5334958432696</v>
+      </c>
+      <c r="D33">
+        <v>1308.512554230635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>1.921049077383372</v>
+      </c>
+      <c r="C36">
+        <v>2.561398769842979</v>
+      </c>
+      <c r="D36">
+        <v>1.536839261906151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>1.921049077379959</v>
+      </c>
+      <c r="C37">
+        <v>2.561398769842979</v>
+      </c>
+      <c r="D37">
+        <v>1.921049077382092</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>1.921049077383372</v>
+      </c>
+      <c r="C38">
+        <v>1.921049077381666</v>
+      </c>
+      <c r="D38">
+        <v>1.921049077382092</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.3845875837199244</v>
+      </c>
+      <c r="C41">
+        <v>0.3845875805737872</v>
+      </c>
+      <c r="D41">
+        <v>0.3845875805737872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0.3845875837199244</v>
+      </c>
+      <c r="C42">
+        <v>0.3845875805737872</v>
+      </c>
+      <c r="D42">
+        <v>0.3845875805737872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>0.3845875837199244</v>
+      </c>
+      <c r="C43">
+        <v>0.3845875805737872</v>
+      </c>
+      <c r="D43">
+        <v>0.3845875805737872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/simulation/robotstudio_sim/scripts/fitting_output/threshold0.25/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/threshold0.25/comparison.xlsx
@@ -443,13 +443,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8162920229785137</v>
+        <v>0.8277748623285942</v>
       </c>
       <c r="C6">
         <v>2.790553791664303</v>
       </c>
       <c r="D6">
-        <v>3.86231047363883</v>
+        <v>3.840629442687172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -457,13 +457,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7661781277033023</v>
+        <v>0.7871608663438693</v>
       </c>
       <c r="C7">
-        <v>2.37528080986188</v>
+        <v>2.389695333884898</v>
       </c>
       <c r="D7">
-        <v>3.808232631059418</v>
+        <v>3.737207009707242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -471,13 +471,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7466905725221979</v>
+        <v>0.7183474458839235</v>
       </c>
       <c r="C8">
         <v>2.176184836660749</v>
       </c>
       <c r="D8">
-        <v>3.389874935386394</v>
+        <v>3.341418653923024</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.9035369429492629</v>
+        <v>0.8899809688139757</v>
       </c>
       <c r="C11">
         <v>2.886258752908477</v>
       </c>
       <c r="D11">
-        <v>3.93799896418241</v>
+        <v>3.91663959657148</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -515,13 +515,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.9268043920934043</v>
+        <v>0.9048851442179396</v>
       </c>
       <c r="C12">
-        <v>2.48109350280514</v>
+        <v>2.481209791909285</v>
       </c>
       <c r="D12">
-        <v>3.881454275864477</v>
+        <v>3.816005587145727</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -529,13 +529,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.7119511636089839</v>
+        <v>0.7112302407228733</v>
       </c>
       <c r="C13">
         <v>2.194446790973227</v>
       </c>
       <c r="D13">
-        <v>3.4425036584302</v>
+        <v>3.391210893189808</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -559,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>921</v>
+        <v>5774</v>
       </c>
       <c r="C16">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D16">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -573,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>5898</v>
+        <v>5600</v>
       </c>
       <c r="C17">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D17">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -587,13 +587,13 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>5214</v>
+        <v>5615</v>
       </c>
       <c r="C18">
         <v>64</v>
       </c>
       <c r="D18">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -617,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>8454</v>
+        <v>3104</v>
       </c>
       <c r="C21">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D21">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -631,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>8200</v>
+        <v>8196</v>
       </c>
       <c r="C22">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D22">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -645,13 +645,13 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>5259</v>
+        <v>5644</v>
       </c>
       <c r="C23">
         <v>64</v>
       </c>
       <c r="D23">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -675,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>36.13999999999999</v>
+        <v>36.236</v>
       </c>
       <c r="C26">
-        <v>6.155</v>
+        <v>6.324</v>
       </c>
       <c r="D26">
-        <v>5.223999999999999</v>
+        <v>5.443999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -692,10 +692,10 @@
         <v>34.968</v>
       </c>
       <c r="C27">
-        <v>4.103000000000001</v>
+        <v>4.096000000000001</v>
       </c>
       <c r="D27">
-        <v>3.084000000000001</v>
+        <v>3.132</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -706,10 +706,10 @@
         <v>34.964</v>
       </c>
       <c r="C28">
-        <v>3.808000000000001</v>
+        <v>3.804</v>
       </c>
       <c r="D28">
-        <v>2.264</v>
+        <v>2.236</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -733,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>51.84984047062258</v>
+        <v>51.84984047053047</v>
       </c>
       <c r="C31">
-        <v>1304.283705013215</v>
+        <v>504.5810922565259</v>
       </c>
       <c r="D31">
         <v>852.5275613264535</v>
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>53.52083243093699</v>
+        <v>53.46409856004971</v>
       </c>
       <c r="C32">
-        <v>673.0240475185711</v>
+        <v>504.7680356387789</v>
       </c>
       <c r="D32">
-        <v>1082.604603717663</v>
+        <v>1083.992289415402</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -764,10 +764,10 @@
         <v>51.53165847416602</v>
       </c>
       <c r="C33">
-        <v>509.5334958432696</v>
+        <v>509.5921398223828</v>
       </c>
       <c r="D33">
-        <v>1308.512554230635</v>
+        <v>1357.64711060729</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -791,10 +791,10 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>1.921049077383372</v>
+        <v>1.921049077379959</v>
       </c>
       <c r="C36">
-        <v>2.561398769842979</v>
+        <v>1.921049077382519</v>
       </c>
       <c r="D36">
         <v>1.536839261906151</v>
@@ -808,7 +808,7 @@
         <v>1.921049077379959</v>
       </c>
       <c r="C37">
-        <v>2.561398769842979</v>
+        <v>1.921049077381666</v>
       </c>
       <c r="D37">
         <v>1.921049077382092</v>
@@ -907,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46">
         <v>45</v>
